--- a/David FaulknerBlack  Box Test.xlsx
+++ b/David FaulknerBlack  Box Test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davesmac/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{550CEE3F-D37A-8F4A-9F61-9B774EDFEC6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6678E101-9B76-FD44-B59C-A9AC0B8C70E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="35840" windowHeight="22400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20740" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employee" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="186">
   <si>
     <t>Test Case #</t>
   </si>
@@ -680,11 +680,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -968,7 +968,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
@@ -982,14 +982,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -1107,7 +1107,7 @@
       <c r="E7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1147,7 +1147,7 @@
       <c r="E9" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1167,7 +1167,7 @@
       <c r="E10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1187,7 +1187,7 @@
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1207,7 +1207,7 @@
       <c r="E12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       <c r="E13" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1247,7 +1247,7 @@
       <c r="E14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       <c r="E15" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1287,7 +1287,7 @@
       <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1307,7 +1307,7 @@
       <c r="E17" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1327,7 +1327,7 @@
       <c r="E18" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
       <c r="E20" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1387,19 +1387,19 @@
       <c r="E21" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="F21" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="26" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
@@ -1437,7 +1437,7 @@
       <c r="E25" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1457,7 +1457,7 @@
       <c r="E26" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1477,7 +1477,7 @@
       <c r="E27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       <c r="E28" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       <c r="E29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       <c r="E30" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       <c r="E31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="F31" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1577,7 +1577,7 @@
       <c r="E32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1597,7 +1597,7 @@
       <c r="E33" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       <c r="E34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
       <c r="E35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1657,7 +1657,7 @@
       <c r="E36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="F36" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       <c r="E37" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="8" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1695,8 +1695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1709,14 +1709,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
@@ -1754,7 +1754,9 @@
       <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
@@ -1772,7 +1774,9 @@
       <c r="E4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
@@ -1790,7 +1794,9 @@
       <c r="E5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
@@ -1808,7 +1814,9 @@
       <c r="E6" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="7" spans="1:6" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
@@ -1826,7 +1834,9 @@
       <c r="E7" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="8" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
@@ -1844,7 +1854,9 @@
       <c r="E8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
@@ -1862,7 +1874,9 @@
       <c r="E9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="10" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
@@ -1880,7 +1894,9 @@
       <c r="E10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
@@ -1898,7 +1914,9 @@
       <c r="E11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
@@ -1916,7 +1934,9 @@
       <c r="E12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A13" s="5">
@@ -1934,7 +1954,9 @@
       <c r="E13" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
@@ -1952,7 +1974,9 @@
       <c r="E14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="F14" s="1"/>
+      <c r="F14" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
@@ -1970,7 +1994,9 @@
       <c r="E15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="5">
@@ -1988,7 +2014,9 @@
       <c r="E16" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="17" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A17" s="5">
@@ -2006,7 +2034,9 @@
       <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="5">
@@ -2024,7 +2054,9 @@
       <c r="E18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
@@ -2042,17 +2074,22 @@
       <c r="E19" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F20" s="1"/>
     </row>
     <row r="21" spans="1:6" ht="26" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
+      <c r="A21" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
@@ -2090,7 +2127,9 @@
       <c r="E23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="1"/>
+      <c r="F23" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="24" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5">
@@ -2108,7 +2147,9 @@
       <c r="E24" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F24" s="1"/>
+      <c r="F24" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="25" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A25" s="5">
@@ -2126,7 +2167,9 @@
       <c r="E25" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A26" s="5">
@@ -2144,7 +2187,9 @@
       <c r="E26" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="27" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
@@ -2162,7 +2207,9 @@
       <c r="E27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="F27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
@@ -2180,7 +2227,9 @@
       <c r="E28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="29" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
@@ -2198,7 +2247,9 @@
       <c r="E29" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="30" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
@@ -2216,7 +2267,9 @@
       <c r="E30" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="31" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
@@ -2234,7 +2287,9 @@
       <c r="E31" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="F31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="32" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
@@ -2252,7 +2307,9 @@
       <c r="E32" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
@@ -2270,7 +2327,9 @@
       <c r="E33" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="F33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
@@ -2288,7 +2347,9 @@
       <c r="E34" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="35" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
@@ -2306,7 +2367,9 @@
       <c r="E35" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F35" s="1"/>
+      <c r="F35" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="36" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
@@ -2324,7 +2387,9 @@
       <c r="E36" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="F36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A37" s="5">
@@ -2342,7 +2407,9 @@
       <c r="E37" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A38" s="5">
@@ -2360,7 +2427,9 @@
       <c r="E38" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="39" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A39" s="5">
@@ -2378,7 +2447,9 @@
       <c r="E39" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F39" s="1"/>
+      <c r="F39" s="1" t="s">
+        <v>185</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
